--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_100ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_100ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2077,28 +2077,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>641.6618317866898</v>
+        <v>690.2736420408105</v>
       </c>
       <c r="AB2" t="n">
-        <v>877.9500263726814</v>
+        <v>944.462849764079</v>
       </c>
       <c r="AC2" t="n">
-        <v>794.159708066273</v>
+        <v>854.3246409445294</v>
       </c>
       <c r="AD2" t="n">
-        <v>641661.8317866898</v>
+        <v>690273.6420408105</v>
       </c>
       <c r="AE2" t="n">
-        <v>877950.0263726814</v>
+        <v>944462.849764079</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.08235431821199e-06</v>
+        <v>3.852900679099586e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.297916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>794159.708066273</v>
+        <v>854324.6409445294</v>
       </c>
     </row>
     <row r="3">
@@ -2183,28 +2183,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>218.8663691945046</v>
+        <v>243.2575704218605</v>
       </c>
       <c r="AB3" t="n">
-        <v>299.4626220345257</v>
+        <v>332.8357396176308</v>
       </c>
       <c r="AC3" t="n">
-        <v>270.8823296860687</v>
+        <v>301.0703637665176</v>
       </c>
       <c r="AD3" t="n">
-        <v>218866.3691945046</v>
+        <v>243257.5704218606</v>
       </c>
       <c r="AE3" t="n">
-        <v>299462.6220345257</v>
+        <v>332835.7396176308</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.86287375591532e-06</v>
+        <v>7.147327804531172e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.934375000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>270882.3296860687</v>
+        <v>301070.3637665176</v>
       </c>
     </row>
     <row r="4">
@@ -2289,28 +2289,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>173.66322122088</v>
+        <v>197.8838302476439</v>
       </c>
       <c r="AB4" t="n">
-        <v>237.6136807549002</v>
+        <v>270.7533865631585</v>
       </c>
       <c r="AC4" t="n">
-        <v>214.9361645566167</v>
+        <v>244.9130633544146</v>
       </c>
       <c r="AD4" t="n">
-        <v>173663.22122088</v>
+        <v>197883.8302476439</v>
       </c>
       <c r="AE4" t="n">
-        <v>237613.6807549002</v>
+        <v>270753.3865631585</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.444952621661842e-06</v>
+        <v>8.224326102808273e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.41875</v>
       </c>
       <c r="AH4" t="n">
-        <v>214936.1645566167</v>
+        <v>244913.0633544146</v>
       </c>
     </row>
     <row r="5">
@@ -2395,28 +2395,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>159.6844024524939</v>
+        <v>171.8800925747229</v>
       </c>
       <c r="AB5" t="n">
-        <v>218.4872442140444</v>
+        <v>235.1739254751454</v>
       </c>
       <c r="AC5" t="n">
-        <v>197.6351282750919</v>
+        <v>212.7292560965429</v>
       </c>
       <c r="AD5" t="n">
-        <v>159684.4024524938</v>
+        <v>171880.0925747229</v>
       </c>
       <c r="AE5" t="n">
-        <v>218487.2442140444</v>
+        <v>235173.9254751453</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.64992024230692e-06</v>
+        <v>8.60356986448229e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.267708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>197635.1282750919</v>
+        <v>212729.2560965429</v>
       </c>
     </row>
   </sheetData>
@@ -2692,28 +2692,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>385.6885091382667</v>
+        <v>420.9796455364184</v>
       </c>
       <c r="AB2" t="n">
-        <v>527.7160335791157</v>
+        <v>576.0029233341218</v>
       </c>
       <c r="AC2" t="n">
-        <v>477.3515559884289</v>
+        <v>521.0300127562928</v>
       </c>
       <c r="AD2" t="n">
-        <v>385688.5091382667</v>
+        <v>420979.6455364184</v>
       </c>
       <c r="AE2" t="n">
-        <v>527716.0335791156</v>
+        <v>576002.9233341217</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.753300543201599e-06</v>
+        <v>5.248215758819219e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.709375000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>477351.5559884289</v>
+        <v>521030.0127562927</v>
       </c>
     </row>
     <row r="3">
@@ -2798,28 +2798,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>165.2338865437554</v>
+        <v>188.5907186085973</v>
       </c>
       <c r="AB3" t="n">
-        <v>226.0802931736637</v>
+        <v>258.038141235471</v>
       </c>
       <c r="AC3" t="n">
-        <v>204.5035072989186</v>
+        <v>233.4113431948387</v>
       </c>
       <c r="AD3" t="n">
-        <v>165233.8865437554</v>
+        <v>188590.7186085973</v>
       </c>
       <c r="AE3" t="n">
-        <v>226080.2931736637</v>
+        <v>258038.141235471</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.496373404086189e-06</v>
+        <v>8.570781644280848e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.495833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>204503.5072989186</v>
+        <v>233411.3431948387</v>
       </c>
     </row>
     <row r="4">
@@ -2904,28 +2904,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>150.7304639098838</v>
+        <v>174.0872959747257</v>
       </c>
       <c r="AB4" t="n">
-        <v>206.236070480162</v>
+        <v>238.1939185419693</v>
       </c>
       <c r="AC4" t="n">
-        <v>186.553189367737</v>
+        <v>215.4610252636569</v>
       </c>
       <c r="AD4" t="n">
-        <v>150730.4639098838</v>
+        <v>174087.2959747257</v>
       </c>
       <c r="AE4" t="n">
-        <v>206236.070480162</v>
+        <v>238193.9185419693</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.727273964878693e-06</v>
+        <v>9.010913748588753e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.325000000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>186553.189367737</v>
+        <v>215461.0252636569</v>
       </c>
     </row>
   </sheetData>
@@ -3201,28 +3201,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.0966001019373</v>
+        <v>158.0234850843188</v>
       </c>
       <c r="AB2" t="n">
-        <v>187.5816165345184</v>
+        <v>216.2147037964056</v>
       </c>
       <c r="AC2" t="n">
-        <v>169.6790903249691</v>
+        <v>195.5794759253812</v>
       </c>
       <c r="AD2" t="n">
-        <v>137096.6001019373</v>
+        <v>158023.4850843188</v>
       </c>
       <c r="AE2" t="n">
-        <v>187581.6165345184</v>
+        <v>216214.7037964055</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.604550276961244e-06</v>
+        <v>9.806487065608979e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.809375</v>
       </c>
       <c r="AH2" t="n">
-        <v>169679.0903249691</v>
+        <v>195579.4759253812</v>
       </c>
     </row>
     <row r="3">
@@ -3307,28 +3307,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>137.482558525666</v>
+        <v>158.4094435080475</v>
       </c>
       <c r="AB3" t="n">
-        <v>188.1097018771478</v>
+        <v>216.7427891390349</v>
       </c>
       <c r="AC3" t="n">
-        <v>170.1567759436705</v>
+        <v>196.0571615440826</v>
       </c>
       <c r="AD3" t="n">
-        <v>137482.558525666</v>
+        <v>158409.4435080475</v>
       </c>
       <c r="AE3" t="n">
-        <v>188109.7018771477</v>
+        <v>216742.7891390349</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.615496250994908e-06</v>
+        <v>9.829799125707161e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.801041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>170156.7759436705</v>
+        <v>196057.1615440826</v>
       </c>
     </row>
   </sheetData>
@@ -3604,28 +3604,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>189.1195393965555</v>
+        <v>210.9778801429353</v>
       </c>
       <c r="AB2" t="n">
-        <v>258.7616971674817</v>
+        <v>288.6692432985988</v>
       </c>
       <c r="AC2" t="n">
-        <v>234.0658439642156</v>
+        <v>261.1190558680931</v>
       </c>
       <c r="AD2" t="n">
-        <v>189119.5393965555</v>
+        <v>210977.8801429353</v>
       </c>
       <c r="AE2" t="n">
-        <v>258761.6971674816</v>
+        <v>288669.2432985988</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.087010694844948e-06</v>
+        <v>8.298044719536424e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.10625</v>
       </c>
       <c r="AH2" t="n">
-        <v>234065.8439642156</v>
+        <v>261119.0558680931</v>
       </c>
     </row>
     <row r="3">
@@ -3710,28 +3710,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>139.462620413048</v>
+        <v>161.4062125054484</v>
       </c>
       <c r="AB3" t="n">
-        <v>190.8189099056277</v>
+        <v>220.8431006893941</v>
       </c>
       <c r="AC3" t="n">
-        <v>172.6074209603105</v>
+        <v>199.7661451149002</v>
       </c>
       <c r="AD3" t="n">
-        <v>139462.620413048</v>
+        <v>161406.2125054484</v>
       </c>
       <c r="AE3" t="n">
-        <v>190818.9099056277</v>
+        <v>220843.1006893941</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.749464397285029e-06</v>
+        <v>9.643054766709501e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.533333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>172607.4209603106</v>
+        <v>199766.1451149003</v>
       </c>
     </row>
   </sheetData>
@@ -4007,28 +4007,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.3848137719623</v>
+        <v>167.3925390199284</v>
       </c>
       <c r="AB2" t="n">
-        <v>201.658404361793</v>
+        <v>229.0338567245882</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.4124092789089</v>
+        <v>207.1751868898963</v>
       </c>
       <c r="AD2" t="n">
-        <v>147384.8137719622</v>
+        <v>167392.5390199284</v>
       </c>
       <c r="AE2" t="n">
-        <v>201658.404361793</v>
+        <v>229033.8567245882</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.399188132099598e-06</v>
+        <v>9.796132702982277e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.141666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>182412.4092789089</v>
+        <v>207175.1868898963</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>443.3046510387975</v>
+        <v>478.8510906755524</v>
       </c>
       <c r="AB2" t="n">
-        <v>606.5489807722081</v>
+        <v>655.1851876814551</v>
       </c>
       <c r="AC2" t="n">
-        <v>548.6607973441489</v>
+        <v>592.6552329273226</v>
       </c>
       <c r="AD2" t="n">
-        <v>443304.6510387976</v>
+        <v>478851.0906755524</v>
       </c>
       <c r="AE2" t="n">
-        <v>606548.9807722081</v>
+        <v>655185.187681455</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.574371753115141e-06</v>
+        <v>4.867528580318966e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.051041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>548660.797344149</v>
+        <v>592655.2329273226</v>
       </c>
     </row>
     <row r="3">
@@ -4410,28 +4410,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>179.2641234139038</v>
+        <v>203.0185840690872</v>
       </c>
       <c r="AB3" t="n">
-        <v>245.2770822297572</v>
+        <v>277.7789832710047</v>
       </c>
       <c r="AC3" t="n">
-        <v>221.8681817503674</v>
+        <v>251.2681469729532</v>
       </c>
       <c r="AD3" t="n">
-        <v>179264.1234139038</v>
+        <v>203018.5840690872</v>
       </c>
       <c r="AE3" t="n">
-        <v>245277.0822297572</v>
+        <v>277778.9832710047</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.307021306350423e-06</v>
+        <v>8.143559406031812e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.616666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>221868.1817503674</v>
+        <v>251268.1469729532</v>
       </c>
     </row>
     <row r="4">
@@ -4516,28 +4516,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>153.4546777519382</v>
+        <v>177.0385462065293</v>
       </c>
       <c r="AB4" t="n">
-        <v>209.9634600426916</v>
+        <v>242.2319493090922</v>
       </c>
       <c r="AC4" t="n">
-        <v>189.924842101844</v>
+        <v>219.1136720417788</v>
       </c>
       <c r="AD4" t="n">
-        <v>153454.6777519382</v>
+        <v>177038.5462065293</v>
       </c>
       <c r="AE4" t="n">
-        <v>209963.4600426916</v>
+        <v>242231.9493090922</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.695278383622654e-06</v>
+        <v>8.877661781823833e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.317708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>189924.842101844</v>
+        <v>219113.6720417787</v>
       </c>
     </row>
     <row r="5">
@@ -4622,28 +4622,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>154.0459964009795</v>
+        <v>177.6298648555706</v>
       </c>
       <c r="AB5" t="n">
-        <v>210.7725283054471</v>
+        <v>243.0410175718477</v>
       </c>
       <c r="AC5" t="n">
-        <v>190.6566940251368</v>
+        <v>219.8455239650715</v>
       </c>
       <c r="AD5" t="n">
-        <v>154045.9964009795</v>
+        <v>177629.8648555706</v>
       </c>
       <c r="AE5" t="n">
-        <v>210772.5283054471</v>
+        <v>243041.0175718477</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.695128823885646e-06</v>
+        <v>8.877378999706808e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.317708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>190656.6940251368</v>
+        <v>219845.5239650715</v>
       </c>
     </row>
   </sheetData>
@@ -4919,28 +4919,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>150.1472801606273</v>
+        <v>169.661206784204</v>
       </c>
       <c r="AB2" t="n">
-        <v>205.4381327461785</v>
+        <v>232.1379480462266</v>
       </c>
       <c r="AC2" t="n">
-        <v>185.831405691172</v>
+        <v>209.983028092418</v>
       </c>
       <c r="AD2" t="n">
-        <v>150147.2801606273</v>
+        <v>169661.206784204</v>
       </c>
       <c r="AE2" t="n">
-        <v>205438.1327461785</v>
+        <v>232137.9480462266</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.185242879243933e-06</v>
+        <v>9.594948658029869e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.455208333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>185831.405691172</v>
+        <v>209983.028092418</v>
       </c>
     </row>
   </sheetData>
@@ -5216,28 +5216,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>267.4035598352287</v>
+        <v>301.5040909806281</v>
       </c>
       <c r="AB2" t="n">
-        <v>365.8733475790295</v>
+        <v>412.5311987014231</v>
       </c>
       <c r="AC2" t="n">
-        <v>330.9549087925547</v>
+        <v>373.1598000885324</v>
       </c>
       <c r="AD2" t="n">
-        <v>267403.5598352287</v>
+        <v>301504.090980628</v>
       </c>
       <c r="AE2" t="n">
-        <v>365873.3475790295</v>
+        <v>412531.1987014231</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.349557516451371e-06</v>
+        <v>6.565086441580274e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.835416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>330954.9087925547</v>
+        <v>373159.8000885324</v>
       </c>
     </row>
     <row r="3">
@@ -5322,28 +5322,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>144.2667924681528</v>
+        <v>166.8867816008743</v>
       </c>
       <c r="AB3" t="n">
-        <v>197.3921900565316</v>
+        <v>228.3418571113962</v>
       </c>
       <c r="AC3" t="n">
-        <v>178.5533564792709</v>
+        <v>206.5492307485596</v>
       </c>
       <c r="AD3" t="n">
-        <v>144266.7924681528</v>
+        <v>166886.7816008743</v>
       </c>
       <c r="AE3" t="n">
-        <v>197392.1900565316</v>
+        <v>228341.8571113962</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.762491745027809e-06</v>
+        <v>9.334418002932049e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.401041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>178553.3564792709</v>
+        <v>206549.2307485596</v>
       </c>
     </row>
     <row r="4">
@@ -5428,28 +5428,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>144.194144408788</v>
+        <v>166.8141335415095</v>
       </c>
       <c r="AB4" t="n">
-        <v>197.2927897767025</v>
+        <v>228.2424568315671</v>
       </c>
       <c r="AC4" t="n">
-        <v>178.4634428226395</v>
+        <v>206.4593170919281</v>
       </c>
       <c r="AD4" t="n">
-        <v>144194.144408788</v>
+        <v>166814.1335415095</v>
       </c>
       <c r="AE4" t="n">
-        <v>197292.7897767025</v>
+        <v>228242.4568315671</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.775863852836499e-06</v>
+        <v>9.360627149435435e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.391666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>178463.4428226395</v>
+        <v>206459.3170919282</v>
       </c>
     </row>
   </sheetData>
@@ -5725,28 +5725,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>344.5772700556682</v>
+        <v>379.3443096530898</v>
       </c>
       <c r="AB2" t="n">
-        <v>471.4658225664407</v>
+        <v>519.0356199571687</v>
       </c>
       <c r="AC2" t="n">
-        <v>426.4697861671368</v>
+        <v>469.4995888595237</v>
       </c>
       <c r="AD2" t="n">
-        <v>344577.2700556683</v>
+        <v>379344.3096530898</v>
       </c>
       <c r="AE2" t="n">
-        <v>471465.8225664407</v>
+        <v>519035.6199571688</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.947188601583038e-06</v>
+        <v>5.66656860525279e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.384374999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>426469.7861671367</v>
+        <v>469499.5888595236</v>
       </c>
     </row>
     <row r="3">
@@ -5831,28 +5831,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>153.8853272284905</v>
+        <v>177.0064895599071</v>
       </c>
       <c r="AB3" t="n">
-        <v>210.5526936554242</v>
+        <v>242.1880879909442</v>
       </c>
       <c r="AC3" t="n">
-        <v>190.4578400855721</v>
+        <v>219.073996786275</v>
       </c>
       <c r="AD3" t="n">
-        <v>153885.3272284905</v>
+        <v>177006.4895599071</v>
       </c>
       <c r="AE3" t="n">
-        <v>210552.6936554241</v>
+        <v>242188.0879909442</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.657304499891107e-06</v>
+        <v>8.954613712203555e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.407291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>190457.8400855721</v>
+        <v>219073.996786275</v>
       </c>
     </row>
     <row r="4">
@@ -5937,28 +5937,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>149.1965734098458</v>
+        <v>172.3177357412624</v>
       </c>
       <c r="AB4" t="n">
-        <v>204.1373338275382</v>
+        <v>235.7727281630582</v>
       </c>
       <c r="AC4" t="n">
-        <v>184.6547531956435</v>
+        <v>213.2709098963464</v>
       </c>
       <c r="AD4" t="n">
-        <v>149196.5734098458</v>
+        <v>172317.7357412624</v>
       </c>
       <c r="AE4" t="n">
-        <v>204137.3338275382</v>
+        <v>235772.7281630582</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.731041345751339e-06</v>
+        <v>9.096387772939783e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.354166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>184654.7531956435</v>
+        <v>213270.9098963464</v>
       </c>
     </row>
   </sheetData>
@@ -6234,28 +6234,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>557.1850317920968</v>
+        <v>605.4711126950034</v>
       </c>
       <c r="AB2" t="n">
-        <v>762.3651417666916</v>
+        <v>828.4322878895936</v>
       </c>
       <c r="AC2" t="n">
-        <v>689.6060826226745</v>
+        <v>749.3678730454284</v>
       </c>
       <c r="AD2" t="n">
-        <v>557185.0317920968</v>
+        <v>605471.1126950034</v>
       </c>
       <c r="AE2" t="n">
-        <v>762365.1417666916</v>
+        <v>828432.2878895935</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.240022290232433e-06</v>
+        <v>4.1729916290221e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.838541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>689606.0826226745</v>
+        <v>749367.8730454284</v>
       </c>
     </row>
     <row r="3">
@@ -6340,28 +6340,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>205.5584829080311</v>
+        <v>229.7441937867698</v>
       </c>
       <c r="AB3" t="n">
-        <v>281.2541849148745</v>
+        <v>314.3461415374073</v>
       </c>
       <c r="AC3" t="n">
-        <v>254.4116802494093</v>
+        <v>284.3453869767508</v>
       </c>
       <c r="AD3" t="n">
-        <v>205558.4829080311</v>
+        <v>229744.1937867698</v>
       </c>
       <c r="AE3" t="n">
-        <v>281254.1849148745</v>
+        <v>314346.1415374073</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.999189011039272e-06</v>
+        <v>7.450185803379835e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.830208333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>254411.6802494093</v>
+        <v>284345.3869767509</v>
       </c>
     </row>
     <row r="4">
@@ -6446,28 +6446,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>162.8496921508483</v>
+        <v>186.8648108289948</v>
       </c>
       <c r="AB4" t="n">
-        <v>222.8181332220567</v>
+        <v>255.6766780697427</v>
       </c>
       <c r="AC4" t="n">
-        <v>201.5526833146217</v>
+        <v>231.2752547593123</v>
       </c>
       <c r="AD4" t="n">
-        <v>162849.6921508483</v>
+        <v>186864.8108289948</v>
       </c>
       <c r="AE4" t="n">
-        <v>222818.1332220567</v>
+        <v>255676.6780697427</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.584303479156837e-06</v>
+        <v>8.540209678642682e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.341666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>201552.6833146217</v>
+        <v>231275.2547593123</v>
       </c>
     </row>
     <row r="5">
@@ -6552,28 +6552,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>158.423314630385</v>
+        <v>170.5162595783054</v>
       </c>
       <c r="AB5" t="n">
-        <v>216.7617682205677</v>
+        <v>233.3078690013824</v>
       </c>
       <c r="AC5" t="n">
-        <v>196.0743292887113</v>
+        <v>211.0412934336086</v>
       </c>
       <c r="AD5" t="n">
-        <v>158423.314630385</v>
+        <v>170516.2595783054</v>
       </c>
       <c r="AE5" t="n">
-        <v>216761.7682205677</v>
+        <v>233307.8690013824</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.651799719635843e-06</v>
+        <v>8.665950055306579e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.292708333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>196074.3292887112</v>
+        <v>211041.2934336086</v>
       </c>
     </row>
   </sheetData>
@@ -6849,28 +6849,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>214.0371994431455</v>
+        <v>236.1929150753427</v>
       </c>
       <c r="AB2" t="n">
-        <v>292.8551389327863</v>
+        <v>323.1695665019327</v>
       </c>
       <c r="AC2" t="n">
-        <v>264.9054554978965</v>
+        <v>292.3267166464195</v>
       </c>
       <c r="AD2" t="n">
-        <v>214037.1994431455</v>
+        <v>236192.9150753428</v>
       </c>
       <c r="AE2" t="n">
-        <v>292855.1389327863</v>
+        <v>323169.5665019327</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.809162147815193e-06</v>
+        <v>7.635455449925914e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.35</v>
       </c>
       <c r="AH2" t="n">
-        <v>264905.4554978965</v>
+        <v>292326.7166464195</v>
       </c>
     </row>
     <row r="3">
@@ -6955,28 +6955,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>141.5744594396009</v>
+        <v>163.6448342172265</v>
       </c>
       <c r="AB3" t="n">
-        <v>193.7084212295183</v>
+        <v>223.906081676467</v>
       </c>
       <c r="AC3" t="n">
-        <v>175.2211613789045</v>
+        <v>202.5367994954888</v>
       </c>
       <c r="AD3" t="n">
-        <v>141574.4594396009</v>
+        <v>163644.8342172265</v>
       </c>
       <c r="AE3" t="n">
-        <v>193708.4212295183</v>
+        <v>223906.081676467</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.748248522629472e-06</v>
+        <v>9.517851604324205e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.489583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>175221.1613789045</v>
+        <v>202536.7994954888</v>
       </c>
     </row>
   </sheetData>
@@ -7252,28 +7252,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>140.4409742955488</v>
+        <v>161.7314723092927</v>
       </c>
       <c r="AB2" t="n">
-        <v>192.1575368495918</v>
+        <v>221.2881355024634</v>
       </c>
       <c r="AC2" t="n">
-        <v>173.8182912275178</v>
+        <v>200.1687064300206</v>
       </c>
       <c r="AD2" t="n">
-        <v>140440.9742955488</v>
+        <v>161731.4723092926</v>
       </c>
       <c r="AE2" t="n">
-        <v>192157.5368495918</v>
+        <v>221288.1355024634</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.607544863809203e-06</v>
+        <v>9.639272001346826e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.746875</v>
       </c>
       <c r="AH2" t="n">
-        <v>173818.2912275178</v>
+        <v>200168.7064300206</v>
       </c>
     </row>
     <row r="3">
@@ -7358,28 +7358,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>137.2863694078271</v>
+        <v>158.5768674215709</v>
       </c>
       <c r="AB3" t="n">
-        <v>187.8412672708675</v>
+        <v>216.9718659237392</v>
       </c>
       <c r="AC3" t="n">
-        <v>169.9139603594633</v>
+        <v>196.2643755619661</v>
       </c>
       <c r="AD3" t="n">
-        <v>137286.3694078271</v>
+        <v>158576.8674215709</v>
       </c>
       <c r="AE3" t="n">
-        <v>187841.2672708675</v>
+        <v>216971.8659237392</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.688579586813184e-06</v>
+        <v>9.808801709613931e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.68125</v>
       </c>
       <c r="AH3" t="n">
-        <v>169913.9603594633</v>
+        <v>196264.3755619661</v>
       </c>
     </row>
   </sheetData>
@@ -12492,28 +12492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>136.3952851126147</v>
+        <v>156.9260555184024</v>
       </c>
       <c r="AB2" t="n">
-        <v>186.622046426294</v>
+        <v>214.7131522491441</v>
       </c>
       <c r="AC2" t="n">
-        <v>168.8111002411082</v>
+        <v>194.2212303503491</v>
       </c>
       <c r="AD2" t="n">
-        <v>136395.2851126147</v>
+        <v>156926.0555184024</v>
       </c>
       <c r="AE2" t="n">
-        <v>186622.046426294</v>
+        <v>214713.1522491441</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.528869783208451e-06</v>
+        <v>9.845109709157913e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.942708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>168811.1002411082</v>
+        <v>194221.2303503491</v>
       </c>
     </row>
     <row r="3">
@@ -12598,28 +12598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>137.360969134762</v>
+        <v>157.8917395405497</v>
       </c>
       <c r="AB3" t="n">
-        <v>187.9433379083676</v>
+        <v>216.0344437312176</v>
       </c>
       <c r="AC3" t="n">
-        <v>170.0062895185773</v>
+        <v>195.4164196278182</v>
       </c>
       <c r="AD3" t="n">
-        <v>137360.969134762</v>
+        <v>157891.7395405497</v>
       </c>
       <c r="AE3" t="n">
-        <v>187943.3379083676</v>
+        <v>216034.4437312176</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.528698358484456e-06</v>
+        <v>9.84473705653256e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.942708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>170006.2895185773</v>
+        <v>195416.4196278182</v>
       </c>
     </row>
   </sheetData>
@@ -12895,28 +12895,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>156.7340685770599</v>
+        <v>185.1858597456096</v>
       </c>
       <c r="AB2" t="n">
-        <v>214.4504672461334</v>
+        <v>253.379463127362</v>
       </c>
       <c r="AC2" t="n">
-        <v>193.9836156353449</v>
+        <v>229.1972827868703</v>
       </c>
       <c r="AD2" t="n">
-        <v>156734.0685770599</v>
+        <v>185185.8597456096</v>
       </c>
       <c r="AE2" t="n">
-        <v>214450.4672461334</v>
+        <v>253379.463127362</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.837132769022372e-06</v>
+        <v>9.126723753737638e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.994791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>193983.6156353449</v>
+        <v>229197.2827868703</v>
       </c>
     </row>
   </sheetData>
@@ -13192,28 +13192,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>310.6660475152773</v>
+        <v>333.7126496261355</v>
       </c>
       <c r="AB2" t="n">
-        <v>425.0669918291258</v>
+        <v>456.6003695815289</v>
       </c>
       <c r="AC2" t="n">
-        <v>384.4991947142232</v>
+        <v>413.0230711513106</v>
       </c>
       <c r="AD2" t="n">
-        <v>310666.0475152773</v>
+        <v>333712.6496261355</v>
       </c>
       <c r="AE2" t="n">
-        <v>425066.9918291258</v>
+        <v>456600.3695815289</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.137403894208357e-06</v>
+        <v>6.088377585972335e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.108333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>384499.1947142232</v>
+        <v>413023.0711513106</v>
       </c>
     </row>
     <row r="3">
@@ -13298,28 +13298,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>144.0270326684894</v>
+        <v>166.9029530702041</v>
       </c>
       <c r="AB3" t="n">
-        <v>197.0641401211764</v>
+        <v>228.363983629168</v>
       </c>
       <c r="AC3" t="n">
-        <v>178.2566151693249</v>
+        <v>206.5692455425301</v>
       </c>
       <c r="AD3" t="n">
-        <v>144027.0326684894</v>
+        <v>166902.9530702041</v>
       </c>
       <c r="AE3" t="n">
-        <v>197064.1401211764</v>
+        <v>228363.983629168</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.813968525463592e-06</v>
+        <v>9.341882351874962e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.329166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>178256.6151693249</v>
+        <v>206569.2455425301</v>
       </c>
     </row>
     <row r="4">
@@ -13404,28 +13404,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>149.1933052190576</v>
+        <v>172.0692256207722</v>
       </c>
       <c r="AB4" t="n">
-        <v>204.1328621447194</v>
+        <v>235.432705652711</v>
       </c>
       <c r="AC4" t="n">
-        <v>184.6507082839569</v>
+        <v>212.963338657162</v>
       </c>
       <c r="AD4" t="n">
-        <v>149193.3052190576</v>
+        <v>172069.2256207723</v>
       </c>
       <c r="AE4" t="n">
-        <v>204132.8621447194</v>
+        <v>235432.705652711</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.701335879531248e-06</v>
+        <v>9.123309895134807e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.409374999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>184650.7082839569</v>
+        <v>212963.338657162</v>
       </c>
     </row>
   </sheetData>
@@ -13701,28 +13701,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>495.5581915795268</v>
+        <v>531.4334323458796</v>
       </c>
       <c r="AB2" t="n">
-        <v>678.0445802035453</v>
+        <v>727.1306673239901</v>
       </c>
       <c r="AC2" t="n">
-        <v>613.3329571104634</v>
+        <v>657.7343369688889</v>
       </c>
       <c r="AD2" t="n">
-        <v>495558.1915795268</v>
+        <v>531433.4323458796</v>
       </c>
       <c r="AE2" t="n">
-        <v>678044.5802035453</v>
+        <v>727130.6673239901</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.404852323057133e-06</v>
+        <v>4.512446211464478e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.422916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>613332.9571104634</v>
+        <v>657734.3369688889</v>
       </c>
     </row>
     <row r="3">
@@ -13807,28 +13807,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>192.699024371447</v>
+        <v>216.6726857796956</v>
       </c>
       <c r="AB3" t="n">
-        <v>263.6593064258577</v>
+        <v>296.4611276079036</v>
       </c>
       <c r="AC3" t="n">
-        <v>238.4960322688115</v>
+        <v>268.1672936748986</v>
       </c>
       <c r="AD3" t="n">
-        <v>192699.024371447</v>
+        <v>216672.6857796956</v>
       </c>
       <c r="AE3" t="n">
-        <v>263659.3064258577</v>
+        <v>296461.1276079036</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.142176120409647e-06</v>
+        <v>7.772347084497913e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.729166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>238496.0322688115</v>
+        <v>268167.2936748986</v>
       </c>
     </row>
     <row r="4">
@@ -13913,28 +13913,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>156.3599489430667</v>
+        <v>180.1630181507231</v>
       </c>
       <c r="AB4" t="n">
-        <v>213.9385802579107</v>
+        <v>246.5069896651098</v>
       </c>
       <c r="AC4" t="n">
-        <v>193.5205824228402</v>
+        <v>222.9807085462761</v>
       </c>
       <c r="AD4" t="n">
-        <v>156359.9489430667</v>
+        <v>180163.0181507231</v>
       </c>
       <c r="AE4" t="n">
-        <v>213938.5802579107</v>
+        <v>246506.9896651098</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.666768729015366e-06</v>
+        <v>8.756688578804673e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.309375</v>
       </c>
       <c r="AH4" t="n">
-        <v>193520.5824228402</v>
+        <v>222980.7085462761</v>
       </c>
     </row>
     <row r="5">
@@ -14019,28 +14019,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>156.141537632259</v>
+        <v>179.9446068399155</v>
       </c>
       <c r="AB5" t="n">
-        <v>213.6397402668368</v>
+        <v>246.2081496740358</v>
       </c>
       <c r="AC5" t="n">
-        <v>193.2502633010896</v>
+        <v>222.7103894245257</v>
       </c>
       <c r="AD5" t="n">
-        <v>156141.537632259</v>
+        <v>179944.6068399154</v>
       </c>
       <c r="AE5" t="n">
-        <v>213639.7402668367</v>
+        <v>246208.1496740358</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.677296166892981e-06</v>
+        <v>8.776442181432083e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.302083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>193250.2633010896</v>
+        <v>222710.3894245257</v>
       </c>
     </row>
   </sheetData>
@@ -14316,28 +14316,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>191.4390741207774</v>
+        <v>218.8344016644566</v>
       </c>
       <c r="AB2" t="n">
-        <v>261.9353869078104</v>
+        <v>299.4188826496062</v>
       </c>
       <c r="AC2" t="n">
-        <v>236.9366412100298</v>
+        <v>270.8427647266574</v>
       </c>
       <c r="AD2" t="n">
-        <v>191439.0741207774</v>
+        <v>218834.4016644566</v>
       </c>
       <c r="AE2" t="n">
-        <v>261935.3869078103</v>
+        <v>299418.8826496062</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.220602686538063e-06</v>
+        <v>8.054482909002133e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.162499999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>236936.6412100298</v>
+        <v>270842.7647266574</v>
       </c>
     </row>
   </sheetData>
@@ -14613,28 +14613,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>155.4175246722803</v>
+        <v>177.0454186209658</v>
       </c>
       <c r="AB2" t="n">
-        <v>212.6491137937969</v>
+        <v>242.2413524497137</v>
       </c>
       <c r="AC2" t="n">
-        <v>192.3541808282834</v>
+        <v>219.1221777598568</v>
       </c>
       <c r="AD2" t="n">
-        <v>155417.5246722803</v>
+        <v>177045.4186209659</v>
       </c>
       <c r="AE2" t="n">
-        <v>212649.1137937969</v>
+        <v>242241.3524497137</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.39276313137427e-06</v>
+        <v>9.045944451874784e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.871875000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>192354.1808282834</v>
+        <v>219122.1777598567</v>
       </c>
     </row>
     <row r="3">
@@ -14719,28 +14719,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>138.3322655621322</v>
+        <v>159.9601595108178</v>
       </c>
       <c r="AB3" t="n">
-        <v>189.2723085308689</v>
+        <v>218.8645471867858</v>
       </c>
       <c r="AC3" t="n">
-        <v>171.2084250500896</v>
+        <v>197.976421981663</v>
       </c>
       <c r="AD3" t="n">
-        <v>138332.2655621322</v>
+        <v>159960.1595108178</v>
       </c>
       <c r="AE3" t="n">
-        <v>189272.3085308689</v>
+        <v>218864.5471867858</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.724751512269582e-06</v>
+        <v>9.729602632940265e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AH3" t="n">
-        <v>171208.4250500896</v>
+        <v>197976.4219816629</v>
       </c>
     </row>
   </sheetData>
@@ -15016,28 +15016,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>239.1898578067656</v>
+        <v>261.7978133188873</v>
       </c>
       <c r="AB2" t="n">
-        <v>327.2701157628454</v>
+        <v>358.2033178872891</v>
       </c>
       <c r="AC2" t="n">
-        <v>296.035915241029</v>
+        <v>324.0168959696397</v>
       </c>
       <c r="AD2" t="n">
-        <v>239189.8578067656</v>
+        <v>261797.8133188873</v>
       </c>
       <c r="AE2" t="n">
-        <v>327270.1157628454</v>
+        <v>358203.3178872891</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.573985319054707e-06</v>
+        <v>7.080722929856264e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.582291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>296035.9152410291</v>
+        <v>324016.8959696396</v>
       </c>
     </row>
     <row r="3">
@@ -15122,28 +15122,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>142.9367309756321</v>
+        <v>165.2887534325867</v>
       </c>
       <c r="AB3" t="n">
-        <v>195.5723412442938</v>
+        <v>226.155364471519</v>
       </c>
       <c r="AC3" t="n">
-        <v>176.9071914834987</v>
+        <v>204.5714138974699</v>
       </c>
       <c r="AD3" t="n">
-        <v>142936.7309756321</v>
+        <v>165288.7534325867</v>
       </c>
       <c r="AE3" t="n">
-        <v>195572.3412442938</v>
+        <v>226155.364471519</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.755827992085423e-06</v>
+        <v>9.422170856291665e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.44375</v>
       </c>
       <c r="AH3" t="n">
-        <v>176907.1914834986</v>
+        <v>204571.4138974699</v>
       </c>
     </row>
   </sheetData>
